--- a/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
+++ b/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
@@ -6076,10 +6076,10 @@
         <v>117</v>
       </c>
       <c r="B97">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C97">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D97">
         <v>2.9</v>
@@ -6094,7 +6094,7 @@
         <v>0.7</v>
       </c>
       <c r="H97">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="I97">
         <v>3.9</v>
@@ -6144,10 +6144,10 @@
         <v>118</v>
       </c>
       <c r="B98">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="C98">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="D98">
         <v>3.2</v>
@@ -6212,10 +6212,10 @@
         <v>119</v>
       </c>
       <c r="B99">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="C99">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -6280,10 +6280,10 @@
         <v>120</v>
       </c>
       <c r="B100">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="D100">
         <v>2.7</v>
@@ -6348,10 +6348,10 @@
         <v>121</v>
       </c>
       <c r="B101">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="C101">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="D101">
         <v>2.6</v>
@@ -6366,7 +6366,7 @@
         <v>1.5</v>
       </c>
       <c r="H101">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I101">
         <v>2.6</v>
@@ -6416,10 +6416,10 @@
         <v>122</v>
       </c>
       <c r="B102">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="C102">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D102">
         <v>2.4</v>
@@ -6434,7 +6434,7 @@
         <v>1.8</v>
       </c>
       <c r="H102">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I102">
         <v>2.4</v>
@@ -6484,10 +6484,10 @@
         <v>123</v>
       </c>
       <c r="B103">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="D103">
         <v>2.5</v>
@@ -6552,10 +6552,10 @@
         <v>124</v>
       </c>
       <c r="B104">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="C104">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D104">
         <v>2.3</v>
@@ -6570,7 +6570,7 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I104">
         <v>3.3</v>
@@ -6620,7 +6620,7 @@
         <v>125</v>
       </c>
       <c r="B105">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="C105">
         <v>0.6</v>
@@ -6688,10 +6688,10 @@
         <v>126</v>
       </c>
       <c r="B106">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C106">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -6706,7 +6706,7 @@
         <v>1.9</v>
       </c>
       <c r="H106">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I106">
         <v>2.8</v>
@@ -6759,7 +6759,7 @@
         <v>1.4</v>
       </c>
       <c r="C107">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D107">
         <v>1.7</v>
@@ -6783,7 +6783,7 @@
         <v>6.8</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="L107">
         <v>3.5</v>
@@ -6827,7 +6827,7 @@
         <v>1.6</v>
       </c>
       <c r="C108">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D108">
         <v>1.6</v>
@@ -6842,7 +6842,7 @@
         <v>1.7</v>
       </c>
       <c r="H108">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I108">
         <v>2.8</v>
@@ -6851,7 +6851,7 @@
         <v>6.8</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="L108">
         <v>2.8</v>
@@ -6892,10 +6892,10 @@
         <v>129</v>
       </c>
       <c r="B109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>1.6</v>
@@ -6907,10 +6907,10 @@
         <v>1.2</v>
       </c>
       <c r="G109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I109">
         <v>2.6</v>
@@ -6919,7 +6919,7 @@
         <v>6.9</v>
       </c>
       <c r="K109">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="L109">
         <v>2.9</v>
@@ -6960,10 +6960,10 @@
         <v>130</v>
       </c>
       <c r="B110">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="C110">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="D110">
         <v>1.9</v>
@@ -6972,13 +6972,13 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G110">
         <v>2.2</v>
       </c>
       <c r="H110">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="I110">
         <v>3.1</v>
@@ -7028,10 +7028,10 @@
         <v>131</v>
       </c>
       <c r="B111">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="C111">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="D111">
         <v>1.7</v>
@@ -7040,22 +7040,22 @@
         <v>1.4</v>
       </c>
       <c r="F111">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>2.7</v>
       </c>
       <c r="H111">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I111">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J111">
         <v>7</v>
       </c>
       <c r="K111">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="L111">
         <v>4.2</v>
@@ -7096,7 +7096,7 @@
         <v>132</v>
       </c>
       <c r="B112">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="C112">
         <v>2.9</v>
@@ -7114,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I112">
         <v>3.9</v>
@@ -7123,7 +7123,7 @@
         <v>6.9</v>
       </c>
       <c r="K112">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="L112">
         <v>5.4</v>
@@ -7167,7 +7167,7 @@
         <v>2.7</v>
       </c>
       <c r="C113">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D113">
         <v>1.6</v>
@@ -7182,7 +7182,7 @@
         <v>3.1</v>
       </c>
       <c r="H113">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I113">
         <v>2.9</v>
@@ -7191,7 +7191,7 @@
         <v>6.8</v>
       </c>
       <c r="K113">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="L113">
         <v>5</v>
@@ -7244,7 +7244,7 @@
         <v>1.4</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G114">
         <v>2.5</v>
@@ -7253,7 +7253,7 @@
         <v>0.6</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J114">
         <v>6.9</v>
@@ -7312,7 +7312,7 @@
         <v>1.2</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G115">
         <v>2.2</v>
@@ -7321,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="I115">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J115">
         <v>6.9</v>
@@ -7457,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="I117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J117">
         <v>6.5</v>
@@ -7481,7 +7481,7 @@
         <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="R117">
         <v>-6.3</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G118">
         <v>1.6</v>
@@ -7525,7 +7525,7 @@
         <v>2.2</v>
       </c>
       <c r="I118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J118">
         <v>6.3</v>
@@ -7549,7 +7549,7 @@
         <v>1.9</v>
       </c>
       <c r="Q118">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="R118">
         <v>-5.9</v>
@@ -7584,7 +7584,7 @@
         <v>0.4</v>
       </c>
       <c r="F119">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G119">
         <v>1.4</v>
@@ -7593,7 +7593,7 @@
         <v>0.9</v>
       </c>
       <c r="I119">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J119">
         <v>6</v>
@@ -7617,7 +7617,7 @@
         <v>2.9</v>
       </c>
       <c r="Q119">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="R119">
         <v>0.6</v>
@@ -7661,7 +7661,7 @@
         <v>0.8</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J120">
         <v>5.9</v>
@@ -7720,7 +7720,7 @@
         <v>-1.4</v>
       </c>
       <c r="F121">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="J121">
         <v>5.8</v>
@@ -7753,7 +7753,7 @@
         <v>3.7</v>
       </c>
       <c r="Q121">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="R121">
         <v>-1.2</v>
@@ -7788,7 +7788,7 @@
         <v>-2.1</v>
       </c>
       <c r="F122">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="G122">
         <v>-3.2</v>
@@ -7821,7 +7821,7 @@
         <v>2.5</v>
       </c>
       <c r="Q122">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="R122">
         <v>-5</v>
@@ -7856,7 +7856,7 @@
         <v>-10.1</v>
       </c>
       <c r="F123">
-        <v>-28.6</v>
+        <v>-28.2</v>
       </c>
       <c r="G123">
         <v>-14.4</v>
@@ -7865,7 +7865,7 @@
         <v>-38.5</v>
       </c>
       <c r="I123">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="J123">
         <v>3.2</v>
@@ -7889,7 +7889,7 @@
         <v>0.4</v>
       </c>
       <c r="Q123">
-        <v>-10.3</v>
+        <v>-10.4</v>
       </c>
       <c r="R123">
         <v>-19</v>
@@ -7924,7 +7924,7 @@
         <v>-5.6</v>
       </c>
       <c r="F124">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="G124">
         <v>-4</v>
@@ -7933,7 +7933,7 @@
         <v>59.9</v>
       </c>
       <c r="I124">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="J124">
         <v>4.9</v>
@@ -7989,10 +7989,10 @@
         <v>-7.3</v>
       </c>
       <c r="E125">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="F125">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="G125">
         <v>-4.6</v>
@@ -8001,7 +8001,7 @@
         <v>-2.5</v>
       </c>
       <c r="I125">
-        <v>-0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="J125">
         <v>6.5</v>
@@ -8025,7 +8025,7 @@
         <v>5.2</v>
       </c>
       <c r="Q125">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="R125">
         <v>-4.3</v>
@@ -8057,10 +8057,10 @@
         <v>-6.1</v>
       </c>
       <c r="E126">
-        <v>-1.6</v>
+        <v>-1.3</v>
       </c>
       <c r="F126">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="G126">
         <v>-1.3</v>
@@ -8081,7 +8081,7 @@
         <v>-0.9</v>
       </c>
       <c r="M126">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="N126">
         <v>-0.7</v>
@@ -8090,10 +8090,10 @@
         <v>-2.6</v>
       </c>
       <c r="P126">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q126">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="R126">
         <v>2.5</v>
@@ -8119,28 +8119,58 @@
         <v>12.2</v>
       </c>
       <c r="C127">
-        <v>6.5</v>
+        <v>6.6</v>
+      </c>
+      <c r="D127">
+        <v>22.2</v>
+      </c>
+      <c r="E127">
+        <v>7.5</v>
+      </c>
+      <c r="F127">
+        <v>1.3</v>
       </c>
       <c r="G127">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H127">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I127">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J127">
         <v>7.9</v>
       </c>
+      <c r="K127">
+        <v>16.1</v>
+      </c>
+      <c r="L127">
+        <v>11.1</v>
+      </c>
       <c r="M127">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N127">
+        <v>10.3</v>
+      </c>
+      <c r="O127">
+        <v>7.5</v>
       </c>
       <c r="P127">
-        <v>7.5</v>
+        <v>7.4</v>
+      </c>
+      <c r="Q127">
+        <v>21.7</v>
+      </c>
+      <c r="S127">
+        <v>12.4</v>
+      </c>
+      <c r="T127">
+        <v>17.6</v>
       </c>
       <c r="U127">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
+++ b/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
@@ -7250,7 +7250,7 @@
         <v>2.5</v>
       </c>
       <c r="H114">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I114">
         <v>2.9</v>
@@ -7383,7 +7383,7 @@
         <v>-2.7</v>
       </c>
       <c r="G116">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H116">
         <v>0.3</v>
@@ -7454,7 +7454,7 @@
         <v>1.2</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I117">
         <v>3.3</v>
@@ -7519,10 +7519,10 @@
         <v>1.2</v>
       </c>
       <c r="G118">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H118">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="I118">
         <v>1.9</v>
@@ -7564,7 +7564,7 @@
         <v>1.3</v>
       </c>
       <c r="V118">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -7587,10 +7587,10 @@
         <v>0.8</v>
       </c>
       <c r="G119">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H119">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I119">
         <v>2.3</v>
@@ -7632,7 +7632,7 @@
         <v>-1</v>
       </c>
       <c r="V119">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -7655,10 +7655,10 @@
         <v>0.5</v>
       </c>
       <c r="G120">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H120">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="I120">
         <v>2.1</v>
@@ -7700,7 +7700,7 @@
         <v>-0.2</v>
       </c>
       <c r="V120">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -7723,10 +7723,10 @@
         <v>-7.5</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I121">
         <v>2.6</v>
@@ -7768,7 +7768,7 @@
         <v>-0.7</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -7791,10 +7791,10 @@
         <v>-2.3</v>
       </c>
       <c r="G122">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="H122">
-        <v>-13.6</v>
+        <v>-13.2</v>
       </c>
       <c r="I122">
         <v>1.5</v>
@@ -7836,7 +7836,7 @@
         <v>-1.3</v>
       </c>
       <c r="V122">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -7856,13 +7856,13 @@
         <v>-10.1</v>
       </c>
       <c r="F123">
-        <v>-28.2</v>
+        <v>-28.1</v>
       </c>
       <c r="G123">
-        <v>-14.4</v>
+        <v>-14.5</v>
       </c>
       <c r="H123">
-        <v>-38.5</v>
+        <v>-39.1</v>
       </c>
       <c r="I123">
         <v>-2.6</v>
@@ -7904,7 +7904,7 @@
         <v>-18.7</v>
       </c>
       <c r="V123">
-        <v>-30</v>
+        <v>-29.8</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -7921,16 +7921,16 @@
         <v>-8.5</v>
       </c>
       <c r="E124">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="F124">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="G124">
         <v>-4</v>
       </c>
       <c r="H124">
-        <v>59.9</v>
+        <v>60.9</v>
       </c>
       <c r="I124">
         <v>-1</v>
@@ -7989,16 +7989,16 @@
         <v>-7.3</v>
       </c>
       <c r="E125">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="F125">
         <v>11.9</v>
       </c>
       <c r="G125">
-        <v>-4.6</v>
+        <v>-4.4</v>
       </c>
       <c r="H125">
-        <v>-2.5</v>
+        <v>-1.7</v>
       </c>
       <c r="I125">
         <v>-1.1</v>
@@ -8040,7 +8040,7 @@
         <v>-4.5</v>
       </c>
       <c r="V125">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -8060,13 +8060,13 @@
         <v>-1.3</v>
       </c>
       <c r="F126">
-        <v>-3.7</v>
+        <v>-4.2</v>
       </c>
       <c r="G126">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H126">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="I126">
         <v>1.9</v>
@@ -8108,7 +8108,7 @@
         <v>-3.6</v>
       </c>
       <c r="V126">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -8125,16 +8125,16 @@
         <v>22.2</v>
       </c>
       <c r="E127">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="F127">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="G127">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="H127">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I127">
         <v>6</v>
@@ -8152,7 +8152,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="N127">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="O127">
         <v>7.5</v>
@@ -8171,6 +8171,9 @@
       </c>
       <c r="U127">
         <v>19.6</v>
+      </c>
+      <c r="V127">
+        <v>41.9</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
+++ b/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
@@ -7238,7 +7238,7 @@
         <v>3.1</v>
       </c>
       <c r="D114">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="E114">
         <v>1.4</v>
@@ -7306,7 +7306,7 @@
         <v>3.4</v>
       </c>
       <c r="D115">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="E115">
         <v>1.2</v>
@@ -7374,7 +7374,7 @@
         <v>1.9</v>
       </c>
       <c r="D116">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="E116">
         <v>-0.2</v>
@@ -7442,7 +7442,7 @@
         <v>0.9</v>
       </c>
       <c r="D117">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="E117">
         <v>-0.2</v>
@@ -7510,7 +7510,7 @@
         <v>2.4</v>
       </c>
       <c r="D118">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -7578,7 +7578,7 @@
         <v>3.2</v>
       </c>
       <c r="D119">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E119">
         <v>0.4</v>
@@ -7646,7 +7646,7 @@
         <v>2.8</v>
       </c>
       <c r="D120">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="E120">
         <v>1.1</v>
@@ -7918,7 +7918,7 @@
         <v>33.8</v>
       </c>
       <c r="D124">
-        <v>-8.5</v>
+        <v>-8.1</v>
       </c>
       <c r="E124">
         <v>-5.5</v>
@@ -7986,7 +7986,7 @@
         <v>4.5</v>
       </c>
       <c r="D125">
-        <v>-7.3</v>
+        <v>-7.1</v>
       </c>
       <c r="E125">
         <v>-0.9</v>
@@ -8054,7 +8054,7 @@
         <v>6.3</v>
       </c>
       <c r="D126">
-        <v>-6.1</v>
+        <v>-5.8</v>
       </c>
       <c r="E126">
         <v>-1.3</v>
@@ -8096,7 +8096,7 @@
         <v>7.2</v>
       </c>
       <c r="R126">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="S126">
         <v>1</v>
@@ -8119,10 +8119,10 @@
         <v>12.2</v>
       </c>
       <c r="C127">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="D127">
-        <v>22.2</v>
+        <v>23.6</v>
       </c>
       <c r="E127">
         <v>7.6</v>
@@ -8149,7 +8149,7 @@
         <v>11.1</v>
       </c>
       <c r="M127">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="N127">
         <v>10.5</v>
@@ -8162,6 +8162,9 @@
       </c>
       <c r="Q127">
         <v>21.7</v>
+      </c>
+      <c r="R127">
+        <v>17.9</v>
       </c>
       <c r="S127">
         <v>12.4</v>

--- a/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
+++ b/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7247,10 +7250,10 @@
         <v>-0.1</v>
       </c>
       <c r="G114">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H114">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I114">
         <v>2.9</v>
@@ -7315,7 +7318,7 @@
         <v>0.2</v>
       </c>
       <c r="G115">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -7454,7 +7457,7 @@
         <v>1.2</v>
       </c>
       <c r="H117">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I117">
         <v>3.3</v>
@@ -7519,10 +7522,10 @@
         <v>1.2</v>
       </c>
       <c r="G118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H118">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I118">
         <v>1.9</v>
@@ -7590,7 +7593,7 @@
         <v>1.5</v>
       </c>
       <c r="H119">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I119">
         <v>2.3</v>
@@ -7655,7 +7658,7 @@
         <v>0.5</v>
       </c>
       <c r="G120">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H120">
         <v>1.1</v>
@@ -7723,10 +7726,10 @@
         <v>-7.5</v>
       </c>
       <c r="G121">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H121">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>2.6</v>
@@ -7862,7 +7865,7 @@
         <v>-14.5</v>
       </c>
       <c r="H123">
-        <v>-39.1</v>
+        <v>-39.2</v>
       </c>
       <c r="I123">
         <v>-2.6</v>
@@ -7930,7 +7933,7 @@
         <v>-4</v>
       </c>
       <c r="H124">
-        <v>60.9</v>
+        <v>60.7</v>
       </c>
       <c r="I124">
         <v>-1</v>
@@ -7998,7 +8001,7 @@
         <v>-4.4</v>
       </c>
       <c r="H125">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="I125">
         <v>-1.1</v>
@@ -8066,7 +8069,7 @@
         <v>-1.2</v>
       </c>
       <c r="H126">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="I126">
         <v>1.9</v>
@@ -8131,10 +8134,10 @@
         <v>1.9</v>
       </c>
       <c r="G127">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="H127">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I127">
         <v>6</v>
@@ -8177,6 +8180,14 @@
       </c>
       <c r="V127">
         <v>41.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="J128">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>

--- a/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
+++ b/12/1/1/Trimestral 1990 a 2021 - Trimestral.xlsx
@@ -7809,7 +7809,7 @@
         <v>0.7</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M122">
         <v>-1.5</v>
@@ -7877,7 +7877,7 @@
         <v>-17.2</v>
       </c>
       <c r="L123">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="M123">
         <v>-10.9</v>
@@ -7945,7 +7945,7 @@
         <v>-2.7</v>
       </c>
       <c r="L124">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="M124">
         <v>-5.4</v>
@@ -8013,7 +8013,7 @@
         <v>-3.4</v>
       </c>
       <c r="L125">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="M125">
         <v>-5.3</v>
@@ -8081,7 +8081,7 @@
         <v>-0.5</v>
       </c>
       <c r="L126">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="M126">
         <v>-2.5</v>
@@ -8149,7 +8149,7 @@
         <v>16.1</v>
       </c>
       <c r="L127">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="M127">
         <v>8.1</v>
@@ -8186,8 +8186,32 @@
       <c r="A128" t="s">
         <v>148</v>
       </c>
+      <c r="B128">
+        <v>4.9</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>3.7</v>
+      </c>
+      <c r="H128">
+        <v>9.1</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
       <c r="J128">
         <v>4.9</v>
+      </c>
+      <c r="M128">
+        <v>2.8</v>
+      </c>
+      <c r="P128">
+        <v>3.8</v>
+      </c>
+      <c r="U128">
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
